--- a/Week01_report.xlsx
+++ b/Week01_report.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Completed Task</t>
-  </si>
-  <si>
     <t>Pending Task</t>
   </si>
   <si>
@@ -187,24 +184,12 @@
     <t>Week01</t>
   </si>
   <si>
-    <t>create_Html_file_on_Name.png</t>
+    <t>Git_task.png, Index_file_creation.png, dulingo_update.png</t>
   </si>
   <si>
     <t>Git_task.png, Index_file_creation.png, create_Html_file_on_Name.png, dulingo_update.png</t>
   </si>
   <si>
-    <t>create_Html_file_on_Name.png, dulingo_update.png</t>
-  </si>
-  <si>
-    <t>Git_task.png, create_Html_file_on_Name.png</t>
-  </si>
-  <si>
-    <t>Git_task.png, Index_file_creation.png, create_Html_file_on_Name.png</t>
-  </si>
-  <si>
-    <t>Git_task.png, Index_file_creation.png, dulingo_update.png</t>
-  </si>
-  <si>
     <t>Git_task.png, Index_file_creation.png</t>
   </si>
   <si>
@@ -223,14 +208,14 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-08-30 08:43:44</t>
+    <t>Generated: 2023-08-31 01:53:58 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,14 +227,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,7 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +284,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,23 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="78.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="89.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,459 +608,434 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Week01_report.xlsx
+++ b/Week01_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Git_task.png, Index_file_creation.png, create_Html_file_on_Name.png, dulingo_update.png</t>
   </si>
   <si>
-    <t>Git_task.png, Index_file_creation.png</t>
-  </si>
-  <si>
     <t>Index_file_creation.png, dulingo_update.png</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-08-31 01:53:58 PM</t>
+    <t>Generated: 2023-08-31 03:52:56 PM</t>
   </si>
 </sst>
 </file>
@@ -623,7 +620,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -640,7 +637,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -654,7 +651,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -671,7 +668,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -688,7 +685,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -705,7 +702,7 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -722,7 +719,7 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -739,23 +736,20 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -773,7 +767,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -787,7 +781,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -804,7 +798,7 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -821,7 +815,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -838,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -855,7 +849,7 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -872,7 +866,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -889,7 +883,7 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -903,10 +897,10 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -923,7 +917,7 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -940,7 +934,7 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -954,10 +948,10 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -974,7 +968,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -991,7 +985,7 @@
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1008,7 +1002,7 @@
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1025,17 +1019,17 @@
         <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
